--- a/Lab2/Zeszyt1.xlsx
+++ b/Lab2/Zeszyt1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasia\Documents\GitHub\aa\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AD03E7-9538-4AFA-853F-1DB66A31BDD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E78791-B390-49A3-A250-16C3AA02C16F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" activeTab="1" xr2:uid="{FCC113E0-1FA6-4155-BD51-D299EB4551C0}"/>
   </bookViews>
@@ -80,6 +80,3511 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Zależność zmierzonej temperatury od czasu dla</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> wartości zadanej 50 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800"/>
+              <a:t>°</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'50 stopni'!$A$3:$A$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="111"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'50 stopni'!$B$3:$B$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="111"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A8E6-4589-BA24-B75001C09132}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="550628520"/>
+        <c:axId val="552295848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="550628520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552295848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="552295848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Temperatura [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1800"/>
+                  <a:t>°</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1000"/>
+                  <a:t>C]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550628520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Zależność zmierzonej temperatury od czasu dla wartości zadanej 150 °</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'150stopni'!$B$3:$B$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="111"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'150stopni'!$C$3:$C$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="111"/>
+                <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E99B-4978-BCDA-3C038AE5B692}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="560812784"/>
+        <c:axId val="560815736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="560812784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Czas [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="800">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4927503615022939"/>
+              <c:y val="0.90534003226591853"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560815736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="560815736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Temperatura [°C]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="800">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560812784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>65616</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>40216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>402167</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32E973C-F762-44BD-8540-F95A0342161A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>65616</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>40216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>97367</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6EC12E7-4500-46AA-8FA9-072482482AAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,1140 +3884,1808 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB810206-EE07-402A-919F-F0F10854D70F}">
-  <dimension ref="B3:B113"/>
+  <dimension ref="A3:B113"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>0</v>
+      </c>
       <c r="B3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>10</v>
+      </c>
       <c r="B4">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>20</v>
+      </c>
       <c r="B5">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>30</v>
+      </c>
       <c r="B6">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>40</v>
+      </c>
       <c r="B7">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>50</v>
+      </c>
       <c r="B8">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>60</v>
+      </c>
       <c r="B9">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>70</v>
+      </c>
       <c r="B10">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>80</v>
+      </c>
       <c r="B11">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>90</v>
+      </c>
       <c r="B12">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>100</v>
+      </c>
       <c r="B13">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>110</v>
+      </c>
       <c r="B14">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>120</v>
+      </c>
       <c r="B15">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>130</v>
+      </c>
       <c r="B16">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <v>140</v>
+      </c>
       <c r="B17">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18">
+        <v>150</v>
+      </c>
       <c r="B18">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19">
+        <v>160</v>
+      </c>
       <c r="B19">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20">
+        <v>170</v>
+      </c>
       <c r="B20">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21">
+        <v>180</v>
+      </c>
       <c r="B21">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A22">
+        <v>190</v>
+      </c>
       <c r="B22">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23">
+        <v>200</v>
+      </c>
       <c r="B23">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A24">
+        <v>210</v>
+      </c>
       <c r="B24">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25">
+        <v>220</v>
+      </c>
       <c r="B25">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A26">
+        <v>230</v>
+      </c>
       <c r="B26">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A27">
+        <v>240</v>
+      </c>
       <c r="B27">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28">
+        <v>250</v>
+      </c>
       <c r="B28">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29">
+        <v>260</v>
+      </c>
       <c r="B29">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A30">
+        <v>270</v>
+      </c>
       <c r="B30">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A31">
+        <v>280</v>
+      </c>
       <c r="B31">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A32">
+        <v>290</v>
+      </c>
       <c r="B32">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A33">
+        <v>300</v>
+      </c>
       <c r="B33">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A34">
+        <v>310</v>
+      </c>
       <c r="B34">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A35">
+        <v>320</v>
+      </c>
       <c r="B35">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A36">
+        <v>330</v>
+      </c>
       <c r="B36">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A37">
+        <v>340</v>
+      </c>
       <c r="B37">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A38">
+        <v>350</v>
+      </c>
       <c r="B38">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A39">
+        <v>360</v>
+      </c>
       <c r="B39">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A40">
+        <v>370</v>
+      </c>
       <c r="B40">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A41">
+        <v>380</v>
+      </c>
       <c r="B41">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A42">
+        <v>390</v>
+      </c>
       <c r="B42">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A43">
+        <v>400</v>
+      </c>
       <c r="B43">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A44">
+        <v>410</v>
+      </c>
       <c r="B44">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A45">
+        <v>420</v>
+      </c>
       <c r="B45">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A46">
+        <v>430</v>
+      </c>
       <c r="B46">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A47">
+        <v>440</v>
+      </c>
       <c r="B47">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A48">
+        <v>450</v>
+      </c>
       <c r="B48">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A49">
+        <v>460</v>
+      </c>
       <c r="B49">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A50">
+        <v>470</v>
+      </c>
       <c r="B50">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A51">
+        <v>480</v>
+      </c>
       <c r="B51">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A52">
+        <v>490</v>
+      </c>
       <c r="B52">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A53">
+        <v>500</v>
+      </c>
       <c r="B53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A54">
+        <v>510</v>
+      </c>
       <c r="B54">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A55">
+        <v>520</v>
+      </c>
       <c r="B55">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A56">
+        <v>530</v>
+      </c>
       <c r="B56">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A57">
+        <v>540</v>
+      </c>
       <c r="B57">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A58">
+        <v>550</v>
+      </c>
       <c r="B58">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A59">
+        <v>560</v>
+      </c>
       <c r="B59">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A60">
+        <v>570</v>
+      </c>
       <c r="B60">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A61">
+        <v>580</v>
+      </c>
       <c r="B61">
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A62">
+        <v>590</v>
+      </c>
       <c r="B62">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A63">
+        <v>600</v>
+      </c>
       <c r="B63">
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A64">
+        <v>610</v>
+      </c>
       <c r="B64">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A65">
+        <v>620</v>
+      </c>
       <c r="B65">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A66">
+        <v>630</v>
+      </c>
       <c r="B66">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A67">
+        <v>640</v>
+      </c>
       <c r="B67">
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A68">
+        <v>650</v>
+      </c>
       <c r="B68">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A69">
+        <v>660</v>
+      </c>
       <c r="B69">
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A70">
+        <v>670</v>
+      </c>
       <c r="B70">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A71">
+        <v>680</v>
+      </c>
       <c r="B71">
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A72">
+        <v>690</v>
+      </c>
       <c r="B72">
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A73">
+        <v>700</v>
+      </c>
       <c r="B73">
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A74">
+        <v>710</v>
+      </c>
       <c r="B74">
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A75">
+        <v>720</v>
+      </c>
       <c r="B75">
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A76">
+        <v>730</v>
+      </c>
       <c r="B76">
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A77">
+        <v>740</v>
+      </c>
       <c r="B77">
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A78">
+        <v>750</v>
+      </c>
       <c r="B78">
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A79">
+        <v>760</v>
+      </c>
       <c r="B79">
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A80">
+        <v>770</v>
+      </c>
       <c r="B80">
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A81">
+        <v>780</v>
+      </c>
       <c r="B81">
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A82">
+        <v>790</v>
+      </c>
       <c r="B82">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A83">
+        <v>800</v>
+      </c>
       <c r="B83">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A84">
+        <v>810</v>
+      </c>
       <c r="B84">
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A85">
+        <v>820</v>
+      </c>
       <c r="B85">
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A86">
+        <v>830</v>
+      </c>
       <c r="B86">
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A87">
+        <v>840</v>
+      </c>
       <c r="B87">
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A88">
+        <v>850</v>
+      </c>
       <c r="B88">
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A89">
+        <v>860</v>
+      </c>
       <c r="B89">
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A90">
+        <v>870</v>
+      </c>
       <c r="B90">
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A91">
+        <v>880</v>
+      </c>
       <c r="B91">
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A92">
+        <v>890</v>
+      </c>
       <c r="B92">
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A93">
+        <v>900</v>
+      </c>
       <c r="B93">
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A94">
+        <v>910</v>
+      </c>
       <c r="B94">
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A95">
+        <v>920</v>
+      </c>
       <c r="B95">
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A96">
+        <v>930</v>
+      </c>
       <c r="B96">
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A97">
+        <v>940</v>
+      </c>
       <c r="B97">
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A98">
+        <v>950</v>
+      </c>
       <c r="B98">
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A99">
+        <v>960</v>
+      </c>
       <c r="B99">
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A100">
+        <v>970</v>
+      </c>
       <c r="B100">
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A101">
+        <v>980</v>
+      </c>
       <c r="B101">
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A102">
+        <v>990</v>
+      </c>
       <c r="B102">
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A103">
+        <v>1000</v>
+      </c>
       <c r="B103">
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A104">
+        <v>1010</v>
+      </c>
       <c r="B104">
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A105">
+        <v>1020</v>
+      </c>
       <c r="B105">
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A106">
+        <v>1030</v>
+      </c>
       <c r="B106">
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A107">
+        <v>1040</v>
+      </c>
       <c r="B107">
         <v>47</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A108">
+        <v>1050</v>
+      </c>
       <c r="B108">
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A109">
+        <v>1060</v>
+      </c>
       <c r="B109">
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A110">
+        <v>1070</v>
+      </c>
       <c r="B110">
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A111">
+        <v>1080</v>
+      </c>
       <c r="B111">
         <v>48</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A112">
+        <v>1090</v>
+      </c>
       <c r="B112">
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A113">
+        <v>1100</v>
+      </c>
       <c r="B113">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6C838E-6476-4DA8-8B56-EB8113E28F41}">
-  <dimension ref="C3:C113"/>
+  <dimension ref="B3:C113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H107" sqref="H107"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B4">
+        <v>10</v>
+      </c>
       <c r="C4">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B5">
+        <v>20</v>
+      </c>
       <c r="C5">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B6">
+        <v>30</v>
+      </c>
       <c r="C6">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B7">
+        <v>40</v>
+      </c>
       <c r="C7">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B8">
+        <v>50</v>
+      </c>
       <c r="C8">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B9">
+        <v>60</v>
+      </c>
       <c r="C9">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B10">
+        <v>70</v>
+      </c>
       <c r="C10">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B11">
+        <v>80</v>
+      </c>
       <c r="C11">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B12">
+        <v>90</v>
+      </c>
       <c r="C12">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B13">
+        <v>100</v>
+      </c>
       <c r="C13">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B14">
+        <v>110</v>
+      </c>
       <c r="C14">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B15">
+        <v>120</v>
+      </c>
       <c r="C15">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B16">
+        <v>130</v>
+      </c>
       <c r="C16">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B17">
+        <v>140</v>
+      </c>
       <c r="C17">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B18">
+        <v>150</v>
+      </c>
       <c r="C18">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B19">
+        <v>160</v>
+      </c>
       <c r="C19">
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B20">
+        <v>170</v>
+      </c>
       <c r="C20">
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B21">
+        <v>180</v>
+      </c>
       <c r="C21">
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B22">
+        <v>190</v>
+      </c>
       <c r="C22">
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B23">
+        <v>200</v>
+      </c>
       <c r="C23">
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B24">
+        <v>210</v>
+      </c>
       <c r="C24">
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B25">
+        <v>220</v>
+      </c>
       <c r="C25">
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B26">
+        <v>230</v>
+      </c>
       <c r="C26">
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B27">
+        <v>240</v>
+      </c>
       <c r="C27">
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B28">
+        <v>250</v>
+      </c>
       <c r="C28">
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B29">
+        <v>260</v>
+      </c>
       <c r="C29">
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B30">
+        <v>270</v>
+      </c>
       <c r="C30">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B31">
+        <v>280</v>
+      </c>
       <c r="C31">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B32">
+        <v>290</v>
+      </c>
       <c r="C32">
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B33">
+        <v>300</v>
+      </c>
       <c r="C33">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B34">
+        <v>310</v>
+      </c>
       <c r="C34">
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B35">
+        <v>320</v>
+      </c>
       <c r="C35">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B36">
+        <v>330</v>
+      </c>
       <c r="C36">
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B37">
+        <v>340</v>
+      </c>
       <c r="C37">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B38">
+        <v>350</v>
+      </c>
       <c r="C38">
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B39">
+        <v>360</v>
+      </c>
       <c r="C39">
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B40">
+        <v>370</v>
+      </c>
       <c r="C40">
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B41">
+        <v>380</v>
+      </c>
       <c r="C41">
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B42">
+        <v>390</v>
+      </c>
       <c r="C42">
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B43">
+        <v>400</v>
+      </c>
       <c r="C43">
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B44">
+        <v>410</v>
+      </c>
       <c r="C44">
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B45">
+        <v>420</v>
+      </c>
       <c r="C45">
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B46">
+        <v>430</v>
+      </c>
       <c r="C46">
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B47">
+        <v>440</v>
+      </c>
       <c r="C47">
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B48">
+        <v>450</v>
+      </c>
       <c r="C48">
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B49">
+        <v>460</v>
+      </c>
       <c r="C49">
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B50">
+        <v>470</v>
+      </c>
       <c r="C50">
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B51">
+        <v>480</v>
+      </c>
       <c r="C51">
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B52">
+        <v>490</v>
+      </c>
       <c r="C52">
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B53">
+        <v>500</v>
+      </c>
       <c r="C53">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B54">
+        <v>510</v>
+      </c>
       <c r="C54">
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B55">
+        <v>520</v>
+      </c>
       <c r="C55">
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B56">
+        <v>530</v>
+      </c>
       <c r="C56">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B57">
+        <v>540</v>
+      </c>
       <c r="C57">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B58">
+        <v>550</v>
+      </c>
       <c r="C58">
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B59">
+        <v>560</v>
+      </c>
       <c r="C59">
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B60">
+        <v>570</v>
+      </c>
       <c r="C60">
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B61">
+        <v>580</v>
+      </c>
       <c r="C61">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B62">
+        <v>590</v>
+      </c>
       <c r="C62">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B63">
+        <v>600</v>
+      </c>
       <c r="C63">
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B64">
+        <v>610</v>
+      </c>
       <c r="C64">
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B65">
+        <v>620</v>
+      </c>
       <c r="C65">
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B66">
+        <v>630</v>
+      </c>
       <c r="C66">
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B67">
+        <v>640</v>
+      </c>
       <c r="C67">
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B68">
+        <v>650</v>
+      </c>
       <c r="C68">
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B69">
+        <v>660</v>
+      </c>
       <c r="C69">
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B70">
+        <v>670</v>
+      </c>
       <c r="C70">
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B71">
+        <v>680</v>
+      </c>
       <c r="C71">
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B72">
+        <v>690</v>
+      </c>
       <c r="C72">
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B73">
+        <v>700</v>
+      </c>
       <c r="C73">
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B74">
+        <v>710</v>
+      </c>
       <c r="C74">
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B75">
+        <v>720</v>
+      </c>
       <c r="C75">
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B76">
+        <v>730</v>
+      </c>
       <c r="C76">
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B77">
+        <v>740</v>
+      </c>
       <c r="C77">
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B78">
+        <v>750</v>
+      </c>
       <c r="C78">
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B79">
+        <v>760</v>
+      </c>
       <c r="C79">
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B80">
+        <v>770</v>
+      </c>
       <c r="C80">
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B81">
+        <v>780</v>
+      </c>
       <c r="C81">
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B82">
+        <v>790</v>
+      </c>
       <c r="C82">
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B83">
+        <v>800</v>
+      </c>
       <c r="C83">
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B84">
+        <v>810</v>
+      </c>
       <c r="C84">
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B85">
+        <v>820</v>
+      </c>
       <c r="C85">
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B86">
+        <v>830</v>
+      </c>
       <c r="C86">
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B87">
+        <v>840</v>
+      </c>
       <c r="C87">
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B88">
+        <v>850</v>
+      </c>
       <c r="C88">
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B89">
+        <v>860</v>
+      </c>
       <c r="C89">
         <v>151</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B90">
+        <v>870</v>
+      </c>
       <c r="C90">
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B91">
+        <v>880</v>
+      </c>
       <c r="C91">
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B92">
+        <v>890</v>
+      </c>
       <c r="C92">
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B93">
+        <v>900</v>
+      </c>
       <c r="C93">
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B94">
+        <v>910</v>
+      </c>
       <c r="C94">
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B95">
+        <v>920</v>
+      </c>
       <c r="C95">
         <v>148</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B96">
+        <v>930</v>
+      </c>
       <c r="C96">
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B97">
+        <v>940</v>
+      </c>
       <c r="C97">
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B98">
+        <v>950</v>
+      </c>
       <c r="C98">
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B99">
+        <v>960</v>
+      </c>
       <c r="C99">
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B100">
+        <v>970</v>
+      </c>
       <c r="C100">
         <v>140</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B101">
+        <v>980</v>
+      </c>
       <c r="C101">
         <v>139</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B102">
+        <v>990</v>
+      </c>
       <c r="C102">
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B103">
+        <v>1000</v>
+      </c>
       <c r="C103">
         <v>137</v>
       </c>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B104">
+        <v>1010</v>
+      </c>
       <c r="C104">
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B105">
+        <v>1020</v>
+      </c>
       <c r="C105">
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B106">
+        <v>1030</v>
+      </c>
       <c r="C106">
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B107">
+        <v>1040</v>
+      </c>
       <c r="C107">
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B108">
+        <v>1050</v>
+      </c>
       <c r="C108">
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B109">
+        <v>1060</v>
+      </c>
       <c r="C109">
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B110">
+        <v>1070</v>
+      </c>
       <c r="C110">
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B111">
+        <v>1080</v>
+      </c>
       <c r="C111">
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B112">
+        <v>1090</v>
+      </c>
       <c r="C112">
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B113">
+        <v>1100</v>
+      </c>
       <c r="C113">
         <v>136</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lab2/Zeszyt1.xlsx
+++ b/Lab2/Zeszyt1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasia\Documents\GitHub\aa\Lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonia\Desktop\Naukowe\2018.19\Aparatura Automatyzacji\Repo\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E78791-B390-49A3-A250-16C3AA02C16F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" activeTab="1" xr2:uid="{FCC113E0-1FA6-4155-BD51-D299EB4551C0}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18426" windowHeight="11748" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="50 stopni" sheetId="1" r:id="rId1"/>
-    <sheet name="150stopni" sheetId="2" r:id="rId2"/>
+    <sheet name="50 stopni (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="50 stopni" sheetId="1" r:id="rId2"/>
+    <sheet name="150stopni" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,8 +31,22 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+  <si>
+    <t>odch. Std</t>
+  </si>
+  <si>
+    <t>średnia</t>
+  </si>
+  <si>
+    <t>średnia różnica</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -83,7 +97,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -144,6 +158,2136 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1140248107371194"/>
+                  <c:y val="-6.1075921836458331E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pl-PL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'50 stopni (2)'!$A$3:$A$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="111"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'50 stopni (2)'!$B$3:$B$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="111"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A8E6-4589-BA24-B75001C09132}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="144106568"/>
+        <c:axId val="144106176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="144106568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144106176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="144106176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Temperatura [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1800"/>
+                  <a:t>°</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1000"/>
+                  <a:t>C]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144106568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.5029090113735777E-2"/>
+                  <c:y val="-0.17237751531058618"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pl-PL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'50 stopni (2)'!$D$3:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="3">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'50 stopni (2)'!$E$3:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="141938968"/>
+        <c:axId val="141933480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="141938968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="230"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="141933480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="141933480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="141938968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15628346456692913"/>
+                  <c:y val="-4.5222368037328667E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pl-PL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'50 stopni (2)'!$P$4:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'50 stopni (2)'!$Q$4:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="141931128"/>
+        <c:axId val="141940144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="141931128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="620"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="141940144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="141940144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="141931128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2692038495188102E-2"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.87753018372703417"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15177777777777779"/>
+                  <c:y val="3.5075459317585302E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pl-PL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'50 stopni (2)'!$P$20:$P$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'50 stopni (2)'!$Q$20:$Q$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="147232408"/>
+        <c:axId val="147232016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="147232408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1030"/>
+          <c:min val="780"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="147232016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="147232016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="147232408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Zależność zmierzonej temperatury od czasu dla</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> wartości zadanej 50 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800"/>
+              <a:t>°</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -903,7 +3047,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A8E6-4589-BA24-B75001C09132}"/>
             </c:ext>
@@ -917,11 +3061,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="550628520"/>
-        <c:axId val="552295848"/>
+        <c:axId val="465428024"/>
+        <c:axId val="465425280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="550628520"/>
+        <c:axId val="465428024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,6 +3116,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1038,12 +3183,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552295848"/>
+        <c:crossAx val="465425280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="552295848"/>
+        <c:axId val="465425280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -1113,6 +3258,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1193,7 +3339,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550628520"/>
+        <c:crossAx val="465428024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1207,14 +3353,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1249,8 +3395,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -1308,6 +3454,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2071,7 +4218,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E99B-4978-BCDA-3C038AE5B692}"/>
             </c:ext>
@@ -2085,11 +4232,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="560812784"/>
-        <c:axId val="560815736"/>
+        <c:axId val="465430376"/>
+        <c:axId val="465431944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="560812784"/>
+        <c:axId val="465430376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,12 +4361,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560815736"/>
+        <c:crossAx val="465431944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="560815736"/>
+        <c:axId val="465431944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -2271,6 +4418,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2337,7 +4485,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560812784"/>
+        <c:crossAx val="465430376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2351,14 +4499,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2473,6 +4621,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3505,27 +5813,2224 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>65616</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>40216</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>484718</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>402167</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>67733</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>576265</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32E973C-F762-44BD-8540-F95A0342161A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B32E973C-F762-44BD-8540-F95A0342161A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>188119</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>116682</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>16669</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>121444</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>282786</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>162136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>619337</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>6773</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B32E973C-F762-44BD-8540-F95A0342161A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3546,7 +8051,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3566,7 +8071,7 @@
         <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6EC12E7-4500-46AA-8FA9-072482482AAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6EC12E7-4500-46AA-8FA9-072482482AAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3883,16 +8388,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB810206-EE07-402A-919F-F0F10854D70F}">
-  <dimension ref="A3:B113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3900,883 +8405,713 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>10</v>
       </c>
       <c r="B4">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="P4">
+        <v>620</v>
+      </c>
+      <c r="Q4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>20</v>
       </c>
       <c r="B5">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="P5">
+        <v>630</v>
+      </c>
+      <c r="Q5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>30</v>
       </c>
       <c r="B6">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="D6">
+        <v>260</v>
+      </c>
+      <c r="E6">
+        <v>68</v>
+      </c>
+      <c r="P6">
+        <v>640</v>
+      </c>
+      <c r="Q6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>40</v>
       </c>
       <c r="B7">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="D7">
+        <v>270</v>
+      </c>
+      <c r="E7">
+        <v>67</v>
+      </c>
+      <c r="P7">
+        <v>650</v>
+      </c>
+      <c r="Q7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>50</v>
       </c>
       <c r="B8">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="D8">
+        <v>280</v>
+      </c>
+      <c r="E8">
+        <v>67</v>
+      </c>
+      <c r="P8">
+        <v>660</v>
+      </c>
+      <c r="Q8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>60</v>
       </c>
       <c r="B9">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="D9">
+        <v>290</v>
+      </c>
+      <c r="E9">
+        <v>66</v>
+      </c>
+      <c r="P9">
+        <v>670</v>
+      </c>
+      <c r="Q9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>70</v>
       </c>
       <c r="B10">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="D10">
+        <v>300</v>
+      </c>
+      <c r="E10">
+        <v>66</v>
+      </c>
+      <c r="P10">
+        <v>680</v>
+      </c>
+      <c r="Q10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>80</v>
       </c>
       <c r="B11">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="D11">
+        <v>310</v>
+      </c>
+      <c r="E11">
+        <v>65</v>
+      </c>
+      <c r="P11">
+        <v>690</v>
+      </c>
+      <c r="Q11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>90</v>
       </c>
       <c r="B12">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="D12">
+        <v>320</v>
+      </c>
+      <c r="E12">
+        <v>64</v>
+      </c>
+      <c r="P12">
+        <v>700</v>
+      </c>
+      <c r="Q12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>100</v>
       </c>
       <c r="B13">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="D13">
+        <v>330</v>
+      </c>
+      <c r="E13">
+        <v>63</v>
+      </c>
+      <c r="P13">
+        <v>710</v>
+      </c>
+      <c r="Q13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>110</v>
       </c>
       <c r="B14">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="D14">
+        <v>340</v>
+      </c>
+      <c r="E14">
+        <v>63</v>
+      </c>
+      <c r="P14">
+        <v>720</v>
+      </c>
+      <c r="Q14">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>120</v>
       </c>
       <c r="B15">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="D15">
+        <v>350</v>
+      </c>
+      <c r="E15">
+        <v>62</v>
+      </c>
+      <c r="P15">
+        <v>730</v>
+      </c>
+      <c r="Q15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>130</v>
       </c>
       <c r="B16">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="D16">
+        <v>360</v>
+      </c>
+      <c r="E16">
+        <v>61</v>
+      </c>
+      <c r="P16">
+        <v>740</v>
+      </c>
+      <c r="Q16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>140</v>
       </c>
       <c r="B17">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="D17">
+        <v>370</v>
+      </c>
+      <c r="E17">
+        <v>60</v>
+      </c>
+      <c r="P17">
+        <v>750</v>
+      </c>
+      <c r="Q17">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>150</v>
       </c>
       <c r="B18">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="D18">
+        <v>380</v>
+      </c>
+      <c r="E18">
+        <v>60</v>
+      </c>
+      <c r="P18">
+        <v>760</v>
+      </c>
+      <c r="Q18">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>160</v>
       </c>
       <c r="B19">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="D19">
+        <v>390</v>
+      </c>
+      <c r="E19">
+        <v>59</v>
+      </c>
+      <c r="P19">
+        <v>770</v>
+      </c>
+      <c r="Q19">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>170</v>
       </c>
       <c r="B20">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="D20">
+        <v>400</v>
+      </c>
+      <c r="E20">
+        <v>58</v>
+      </c>
+      <c r="P20">
+        <v>780</v>
+      </c>
+      <c r="Q20">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>180</v>
       </c>
       <c r="B21">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="D21">
+        <v>410</v>
+      </c>
+      <c r="E21">
+        <v>58</v>
+      </c>
+      <c r="P21">
+        <v>790</v>
+      </c>
+      <c r="Q21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>190</v>
       </c>
       <c r="B22">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="D22">
+        <v>420</v>
+      </c>
+      <c r="E22">
+        <v>57</v>
+      </c>
+      <c r="P22">
+        <v>800</v>
+      </c>
+      <c r="Q22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>200</v>
       </c>
       <c r="B23">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="D23">
+        <v>430</v>
+      </c>
+      <c r="E23">
+        <v>56</v>
+      </c>
+      <c r="P23">
+        <v>810</v>
+      </c>
+      <c r="Q23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>210</v>
       </c>
       <c r="B24">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="D24">
+        <v>440</v>
+      </c>
+      <c r="E24">
+        <v>55</v>
+      </c>
+      <c r="P24">
+        <v>820</v>
+      </c>
+      <c r="Q24">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>220</v>
       </c>
       <c r="B25">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26">
-        <v>230</v>
-      </c>
-      <c r="B26">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27">
-        <v>240</v>
-      </c>
-      <c r="B27">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28">
-        <v>250</v>
-      </c>
-      <c r="B28">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29">
-        <v>260</v>
-      </c>
-      <c r="B29">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30">
-        <v>270</v>
-      </c>
-      <c r="B30">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31">
-        <v>280</v>
-      </c>
-      <c r="B31">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32">
-        <v>290</v>
-      </c>
-      <c r="B32">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33">
-        <v>300</v>
-      </c>
-      <c r="B33">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34">
-        <v>310</v>
-      </c>
-      <c r="B34">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35">
-        <v>320</v>
-      </c>
-      <c r="B35">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36">
-        <v>330</v>
-      </c>
-      <c r="B36">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37">
-        <v>340</v>
-      </c>
-      <c r="B37">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38">
-        <v>350</v>
-      </c>
-      <c r="B38">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39">
-        <v>360</v>
-      </c>
-      <c r="B39">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40">
-        <v>370</v>
-      </c>
-      <c r="B40">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41">
-        <v>380</v>
-      </c>
-      <c r="B41">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42">
-        <v>390</v>
-      </c>
-      <c r="B42">
+      <c r="D25">
+        <v>450</v>
+      </c>
+      <c r="E25">
+        <v>55</v>
+      </c>
+      <c r="P25">
+        <v>830</v>
+      </c>
+      <c r="Q25">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43">
-        <v>400</v>
-      </c>
-      <c r="B43">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26">
+        <v>460</v>
+      </c>
+      <c r="E26">
+        <v>54</v>
+      </c>
+      <c r="P26">
+        <v>840</v>
+      </c>
+      <c r="Q26">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44">
-        <v>410</v>
-      </c>
-      <c r="B44">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27">
+        <v>470</v>
+      </c>
+      <c r="E27">
+        <v>53</v>
+      </c>
+      <c r="P27">
+        <v>850</v>
+      </c>
+      <c r="Q27">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45">
-        <v>420</v>
-      </c>
-      <c r="B45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28">
+        <v>480</v>
+      </c>
+      <c r="E28">
+        <v>52</v>
+      </c>
+      <c r="P28">
+        <v>860</v>
+      </c>
+      <c r="Q28">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46">
-        <v>430</v>
-      </c>
-      <c r="B46">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29">
+        <v>490</v>
+      </c>
+      <c r="E29">
+        <v>52</v>
+      </c>
+      <c r="P29">
+        <v>870</v>
+      </c>
+      <c r="Q29">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30">
+        <v>500</v>
+      </c>
+      <c r="E30">
+        <v>51</v>
+      </c>
+      <c r="P30">
+        <v>880</v>
+      </c>
+      <c r="Q30">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A47">
-        <v>440</v>
-      </c>
-      <c r="B47">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31">
+        <v>510</v>
+      </c>
+      <c r="E31">
+        <v>51</v>
+      </c>
+      <c r="P31">
+        <v>890</v>
+      </c>
+      <c r="Q31">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A48">
-        <v>450</v>
-      </c>
-      <c r="B48">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32">
+        <v>520</v>
+      </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
+      <c r="P32">
+        <v>900</v>
+      </c>
+      <c r="Q32">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49">
-        <v>460</v>
-      </c>
-      <c r="B49">
+    <row r="33" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33">
+        <v>530</v>
+      </c>
+      <c r="E33">
+        <v>49</v>
+      </c>
+      <c r="P33">
+        <v>910</v>
+      </c>
+      <c r="Q33">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50">
-        <v>470</v>
-      </c>
-      <c r="B50">
+    <row r="34" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34">
+        <v>540</v>
+      </c>
+      <c r="E34">
+        <v>49</v>
+      </c>
+      <c r="P34">
+        <v>920</v>
+      </c>
+      <c r="Q34">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51">
-        <v>480</v>
-      </c>
-      <c r="B51">
+    <row r="35" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D35">
+        <v>550</v>
+      </c>
+      <c r="E35">
+        <v>48</v>
+      </c>
+      <c r="P35">
+        <v>930</v>
+      </c>
+      <c r="Q35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36">
+        <v>560</v>
+      </c>
+      <c r="E36">
+        <v>47</v>
+      </c>
+      <c r="P36">
+        <v>940</v>
+      </c>
+      <c r="Q36">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52">
-        <v>490</v>
-      </c>
-      <c r="B52">
+    <row r="37" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P37">
+        <v>950</v>
+      </c>
+      <c r="Q37">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A53">
-        <v>500</v>
-      </c>
-      <c r="B53">
+    <row r="38" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P38">
+        <v>960</v>
+      </c>
+      <c r="Q38">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A54">
-        <v>510</v>
-      </c>
-      <c r="B54">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A55">
-        <v>520</v>
-      </c>
-      <c r="B55">
+    <row r="39" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P39">
+        <v>970</v>
+      </c>
+      <c r="Q39">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A56">
-        <v>530</v>
-      </c>
-      <c r="B56">
+    <row r="40" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P40">
+        <v>980</v>
+      </c>
+      <c r="Q40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P41">
+        <v>990</v>
+      </c>
+      <c r="Q41">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A57">
-        <v>540</v>
-      </c>
-      <c r="B57">
+    <row r="42" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P42">
+        <v>1000</v>
+      </c>
+      <c r="Q42">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58">
-        <v>550</v>
-      </c>
-      <c r="B58">
+    <row r="43" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P43">
+        <v>1010</v>
+      </c>
+      <c r="Q43">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A59">
-        <v>560</v>
-      </c>
-      <c r="B59">
+    <row r="44" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P44">
+        <v>1020</v>
+      </c>
+      <c r="Q44">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P45">
+        <v>1030</v>
+      </c>
+      <c r="Q45">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A60">
-        <v>570</v>
-      </c>
-      <c r="B60">
+    <row r="46" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P46">
+        <v>1040</v>
+      </c>
+      <c r="Q46">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A61">
-        <v>580</v>
-      </c>
-      <c r="B61">
+    <row r="47" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P47">
+        <v>1050</v>
+      </c>
+      <c r="Q47">
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A62">
-        <v>590</v>
-      </c>
-      <c r="B62">
+    <row r="48" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P48">
+        <v>1060</v>
+      </c>
+      <c r="Q48">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A63">
-        <v>600</v>
-      </c>
-      <c r="B63">
+    <row r="49" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P49">
+        <v>1070</v>
+      </c>
+      <c r="Q49">
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A64">
-        <v>610</v>
-      </c>
-      <c r="B64">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A65">
-        <v>620</v>
-      </c>
-      <c r="B65">
+    <row r="50" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P50">
+        <v>1080</v>
+      </c>
+      <c r="Q50">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A66">
-        <v>630</v>
-      </c>
-      <c r="B66">
+    <row r="51" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P51">
+        <v>1090</v>
+      </c>
+      <c r="Q51">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A67">
-        <v>640</v>
-      </c>
-      <c r="B67">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A68">
-        <v>650</v>
-      </c>
-      <c r="B68">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A69">
-        <v>660</v>
-      </c>
-      <c r="B69">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A70">
-        <v>670</v>
-      </c>
-      <c r="B70">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A71">
-        <v>680</v>
-      </c>
-      <c r="B71">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A72">
-        <v>690</v>
-      </c>
-      <c r="B72">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A73">
-        <v>700</v>
-      </c>
-      <c r="B73">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A74">
-        <v>710</v>
-      </c>
-      <c r="B74">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A75">
-        <v>720</v>
-      </c>
-      <c r="B75">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A76">
-        <v>730</v>
-      </c>
-      <c r="B76">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A77">
-        <v>740</v>
-      </c>
-      <c r="B77">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A78">
-        <v>750</v>
-      </c>
-      <c r="B78">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A79">
-        <v>760</v>
-      </c>
-      <c r="B79">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A80">
-        <v>770</v>
-      </c>
-      <c r="B80">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A81">
-        <v>780</v>
-      </c>
-      <c r="B81">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A82">
-        <v>790</v>
-      </c>
-      <c r="B82">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A83">
-        <v>800</v>
-      </c>
-      <c r="B83">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A84">
-        <v>810</v>
-      </c>
-      <c r="B84">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A85">
-        <v>820</v>
-      </c>
-      <c r="B85">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A86">
-        <v>830</v>
-      </c>
-      <c r="B86">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A87">
-        <v>840</v>
-      </c>
-      <c r="B87">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A88">
-        <v>850</v>
-      </c>
-      <c r="B88">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A89">
-        <v>860</v>
-      </c>
-      <c r="B89">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A90">
-        <v>870</v>
-      </c>
-      <c r="B90">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A91">
-        <v>880</v>
-      </c>
-      <c r="B91">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A92">
-        <v>890</v>
-      </c>
-      <c r="B92">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A93">
-        <v>900</v>
-      </c>
-      <c r="B93">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A94">
-        <v>910</v>
-      </c>
-      <c r="B94">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A95">
-        <v>920</v>
-      </c>
-      <c r="B95">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A96">
-        <v>930</v>
-      </c>
-      <c r="B96">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A97">
-        <v>940</v>
-      </c>
-      <c r="B97">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A98">
-        <v>950</v>
-      </c>
-      <c r="B98">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A99">
-        <v>960</v>
-      </c>
-      <c r="B99">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A100">
-        <v>970</v>
-      </c>
-      <c r="B100">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A101">
-        <v>980</v>
-      </c>
-      <c r="B101">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A102">
-        <v>990</v>
-      </c>
-      <c r="B102">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A103">
-        <v>1000</v>
-      </c>
-      <c r="B103">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A104">
-        <v>1010</v>
-      </c>
-      <c r="B104">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A105">
-        <v>1020</v>
-      </c>
-      <c r="B105">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A106">
-        <v>1030</v>
-      </c>
-      <c r="B106">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A107">
-        <v>1040</v>
-      </c>
-      <c r="B107">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A108">
-        <v>1050</v>
-      </c>
-      <c r="B108">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A109">
-        <v>1060</v>
-      </c>
-      <c r="B109">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A110">
-        <v>1070</v>
-      </c>
-      <c r="B110">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A111">
-        <v>1080</v>
-      </c>
-      <c r="B111">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A112">
-        <v>1090</v>
-      </c>
-      <c r="B112">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A113">
+    <row r="52" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P52">
         <v>1100</v>
       </c>
-      <c r="B113">
+      <c r="Q52">
         <v>49</v>
       </c>
     </row>
@@ -4787,16 +9122,945 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6C838E-6476-4DA8-8B56-EB8113E28F41}">
-  <dimension ref="B3:C113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>110</v>
+      </c>
+      <c r="B14">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>120</v>
+      </c>
+      <c r="B15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>130</v>
+      </c>
+      <c r="B16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>140</v>
+      </c>
+      <c r="B17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>150</v>
+      </c>
+      <c r="B18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>160</v>
+      </c>
+      <c r="B19">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>170</v>
+      </c>
+      <c r="B20">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>180</v>
+      </c>
+      <c r="B21">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>190</v>
+      </c>
+      <c r="B22">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>200</v>
+      </c>
+      <c r="B23">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>210</v>
+      </c>
+      <c r="B24">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>220</v>
+      </c>
+      <c r="B25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>230</v>
+      </c>
+      <c r="B26">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>240</v>
+      </c>
+      <c r="B27">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>250</v>
+      </c>
+      <c r="B28">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>260</v>
+      </c>
+      <c r="B29">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>270</v>
+      </c>
+      <c r="B30">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>280</v>
+      </c>
+      <c r="B31">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>290</v>
+      </c>
+      <c r="B32">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>300</v>
+      </c>
+      <c r="B33">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>310</v>
+      </c>
+      <c r="B34">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>320</v>
+      </c>
+      <c r="B35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>330</v>
+      </c>
+      <c r="B36">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>340</v>
+      </c>
+      <c r="B37">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>350</v>
+      </c>
+      <c r="B38">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>360</v>
+      </c>
+      <c r="B39">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>370</v>
+      </c>
+      <c r="B40">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>380</v>
+      </c>
+      <c r="B41">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>390</v>
+      </c>
+      <c r="B42">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>400</v>
+      </c>
+      <c r="B43">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>410</v>
+      </c>
+      <c r="B44">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>420</v>
+      </c>
+      <c r="B45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>430</v>
+      </c>
+      <c r="B46">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>440</v>
+      </c>
+      <c r="B47">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>450</v>
+      </c>
+      <c r="B48">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>460</v>
+      </c>
+      <c r="B49">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>470</v>
+      </c>
+      <c r="B50">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>480</v>
+      </c>
+      <c r="B51">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>490</v>
+      </c>
+      <c r="B52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>500</v>
+      </c>
+      <c r="B53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>510</v>
+      </c>
+      <c r="B54">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>520</v>
+      </c>
+      <c r="B55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
+        <v>530</v>
+      </c>
+      <c r="B56">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>540</v>
+      </c>
+      <c r="B57">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>550</v>
+      </c>
+      <c r="B58">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>560</v>
+      </c>
+      <c r="B59">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>570</v>
+      </c>
+      <c r="B60">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>580</v>
+      </c>
+      <c r="B61">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>590</v>
+      </c>
+      <c r="B62">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>600</v>
+      </c>
+      <c r="B63">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>610</v>
+      </c>
+      <c r="B64">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>620</v>
+      </c>
+      <c r="B65">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>630</v>
+      </c>
+      <c r="B66">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <v>640</v>
+      </c>
+      <c r="B67">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
+        <v>650</v>
+      </c>
+      <c r="B68">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <v>660</v>
+      </c>
+      <c r="B69">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70">
+        <v>670</v>
+      </c>
+      <c r="B70">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>680</v>
+      </c>
+      <c r="B71">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
+        <v>690</v>
+      </c>
+      <c r="B72">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73">
+        <v>700</v>
+      </c>
+      <c r="B73">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
+        <v>710</v>
+      </c>
+      <c r="B74">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <v>720</v>
+      </c>
+      <c r="B75">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <v>730</v>
+      </c>
+      <c r="B76">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77">
+        <v>740</v>
+      </c>
+      <c r="B77">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78">
+        <v>750</v>
+      </c>
+      <c r="B78">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79">
+        <v>760</v>
+      </c>
+      <c r="B79">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80">
+        <v>770</v>
+      </c>
+      <c r="B80">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81">
+        <v>780</v>
+      </c>
+      <c r="B81">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
+        <v>790</v>
+      </c>
+      <c r="B82">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83">
+        <v>800</v>
+      </c>
+      <c r="B83">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84">
+        <v>810</v>
+      </c>
+      <c r="B84">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85">
+        <v>820</v>
+      </c>
+      <c r="B85">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86">
+        <v>830</v>
+      </c>
+      <c r="B86">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87">
+        <v>840</v>
+      </c>
+      <c r="B87">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88">
+        <v>850</v>
+      </c>
+      <c r="B88">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89">
+        <v>860</v>
+      </c>
+      <c r="B89">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90">
+        <v>870</v>
+      </c>
+      <c r="B90">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91">
+        <v>880</v>
+      </c>
+      <c r="B91">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92">
+        <v>890</v>
+      </c>
+      <c r="B92">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93">
+        <v>900</v>
+      </c>
+      <c r="B93">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94">
+        <v>910</v>
+      </c>
+      <c r="B94">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95">
+        <v>920</v>
+      </c>
+      <c r="B95">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96">
+        <v>930</v>
+      </c>
+      <c r="B96">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97">
+        <v>940</v>
+      </c>
+      <c r="B97">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98">
+        <v>950</v>
+      </c>
+      <c r="B98">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99">
+        <v>960</v>
+      </c>
+      <c r="B99">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100">
+        <v>970</v>
+      </c>
+      <c r="B100">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101">
+        <v>980</v>
+      </c>
+      <c r="B101">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102">
+        <v>990</v>
+      </c>
+      <c r="B102">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103">
+        <v>1000</v>
+      </c>
+      <c r="B103">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104">
+        <v>1010</v>
+      </c>
+      <c r="B104">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105">
+        <v>1020</v>
+      </c>
+      <c r="B105">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106">
+        <v>1030</v>
+      </c>
+      <c r="B106">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107">
+        <v>1040</v>
+      </c>
+      <c r="B107">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108">
+        <v>1050</v>
+      </c>
+      <c r="B108">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109">
+        <v>1060</v>
+      </c>
+      <c r="B109">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110">
+        <v>1070</v>
+      </c>
+      <c r="B110">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111">
+        <v>1080</v>
+      </c>
+      <c r="B111">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112">
+        <v>1090</v>
+      </c>
+      <c r="B112">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113">
+        <v>1100</v>
+      </c>
+      <c r="B113">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B114">
+        <f>STDEV(B3:B113)</f>
+        <v>8.5530382645270375</v>
+      </c>
+      <c r="C114">
+        <f>AVERAGE(B3:B113)</f>
+        <v>54.009009009009006</v>
+      </c>
+      <c r="D114">
+        <f>50-C114</f>
+        <v>-4.0090090090090058</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B3">
         <v>0</v>
       </c>
@@ -4804,7 +10068,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B4">
         <v>10</v>
       </c>
@@ -4812,7 +10076,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <v>20</v>
       </c>
@@ -4820,7 +10084,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>30</v>
       </c>
@@ -4828,7 +10092,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <v>40</v>
       </c>
@@ -4836,7 +10100,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B8">
         <v>50</v>
       </c>
@@ -4844,7 +10108,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B9">
         <v>60</v>
       </c>
@@ -4852,7 +10116,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
         <v>70</v>
       </c>
@@ -4860,7 +10124,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
         <v>80</v>
       </c>
@@ -4868,7 +10132,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
         <v>90</v>
       </c>
@@ -4876,7 +10140,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B13">
         <v>100</v>
       </c>
@@ -4884,7 +10148,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B14">
         <v>110</v>
       </c>
@@ -4892,7 +10156,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B15">
         <v>120</v>
       </c>
@@ -4900,7 +10164,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B16">
         <v>130</v>
       </c>
@@ -4908,7 +10172,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B17">
         <v>140</v>
       </c>
@@ -4916,7 +10180,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B18">
         <v>150</v>
       </c>
@@ -4924,7 +10188,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B19">
         <v>160</v>
       </c>
@@ -4932,7 +10196,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B20">
         <v>170</v>
       </c>
@@ -4940,7 +10204,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B21">
         <v>180</v>
       </c>
@@ -4948,7 +10212,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B22">
         <v>190</v>
       </c>
@@ -4956,7 +10220,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B23">
         <v>200</v>
       </c>
@@ -4964,7 +10228,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B24">
         <v>210</v>
       </c>
@@ -4972,7 +10236,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B25">
         <v>220</v>
       </c>
@@ -4980,7 +10244,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B26">
         <v>230</v>
       </c>
@@ -4988,7 +10252,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B27">
         <v>240</v>
       </c>
@@ -4996,7 +10260,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B28">
         <v>250</v>
       </c>
@@ -5004,7 +10268,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B29">
         <v>260</v>
       </c>
@@ -5012,7 +10276,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B30">
         <v>270</v>
       </c>
@@ -5020,7 +10284,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B31">
         <v>280</v>
       </c>
@@ -5028,7 +10292,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B32">
         <v>290</v>
       </c>
@@ -5036,7 +10300,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B33">
         <v>300</v>
       </c>
@@ -5044,7 +10308,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B34">
         <v>310</v>
       </c>
@@ -5052,7 +10316,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B35">
         <v>320</v>
       </c>
@@ -5060,7 +10324,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B36">
         <v>330</v>
       </c>
@@ -5068,7 +10332,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B37">
         <v>340</v>
       </c>
@@ -5076,7 +10340,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B38">
         <v>350</v>
       </c>
@@ -5084,7 +10348,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B39">
         <v>360</v>
       </c>
@@ -5092,7 +10356,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B40">
         <v>370</v>
       </c>
@@ -5100,7 +10364,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B41">
         <v>380</v>
       </c>
@@ -5108,7 +10372,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B42">
         <v>390</v>
       </c>
@@ -5116,7 +10380,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B43">
         <v>400</v>
       </c>
@@ -5124,7 +10388,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B44">
         <v>410</v>
       </c>
@@ -5132,7 +10396,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B45">
         <v>420</v>
       </c>
@@ -5140,7 +10404,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B46">
         <v>430</v>
       </c>
@@ -5148,7 +10412,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B47">
         <v>440</v>
       </c>
@@ -5156,7 +10420,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B48">
         <v>450</v>
       </c>
@@ -5164,7 +10428,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B49">
         <v>460</v>
       </c>
@@ -5172,7 +10436,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B50">
         <v>470</v>
       </c>
@@ -5180,7 +10444,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B51">
         <v>480</v>
       </c>
@@ -5188,7 +10452,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B52">
         <v>490</v>
       </c>
@@ -5196,7 +10460,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B53">
         <v>500</v>
       </c>
@@ -5204,7 +10468,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B54">
         <v>510</v>
       </c>
@@ -5212,7 +10476,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B55">
         <v>520</v>
       </c>
@@ -5220,7 +10484,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B56">
         <v>530</v>
       </c>
@@ -5228,7 +10492,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B57">
         <v>540</v>
       </c>
@@ -5236,7 +10500,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B58">
         <v>550</v>
       </c>
@@ -5244,7 +10508,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B59">
         <v>560</v>
       </c>
@@ -5252,7 +10516,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B60">
         <v>570</v>
       </c>
@@ -5260,7 +10524,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B61">
         <v>580</v>
       </c>
@@ -5268,7 +10532,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B62">
         <v>590</v>
       </c>
@@ -5276,7 +10540,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B63">
         <v>600</v>
       </c>
@@ -5284,7 +10548,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B64">
         <v>610</v>
       </c>
@@ -5292,7 +10556,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B65">
         <v>620</v>
       </c>
@@ -5300,7 +10564,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B66">
         <v>630</v>
       </c>
@@ -5308,7 +10572,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B67">
         <v>640</v>
       </c>
@@ -5316,7 +10580,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B68">
         <v>650</v>
       </c>
@@ -5324,7 +10588,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B69">
         <v>660</v>
       </c>
@@ -5332,7 +10596,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B70">
         <v>670</v>
       </c>
@@ -5340,7 +10604,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B71">
         <v>680</v>
       </c>
@@ -5348,7 +10612,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B72">
         <v>690</v>
       </c>
@@ -5356,7 +10620,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B73">
         <v>700</v>
       </c>
@@ -5364,7 +10628,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B74">
         <v>710</v>
       </c>
@@ -5372,7 +10636,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B75">
         <v>720</v>
       </c>
@@ -5380,7 +10644,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B76">
         <v>730</v>
       </c>
@@ -5388,7 +10652,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B77">
         <v>740</v>
       </c>
@@ -5396,7 +10660,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B78">
         <v>750</v>
       </c>
@@ -5404,7 +10668,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B79">
         <v>760</v>
       </c>
@@ -5412,7 +10676,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B80">
         <v>770</v>
       </c>
@@ -5420,7 +10684,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B81">
         <v>780</v>
       </c>
@@ -5428,7 +10692,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B82">
         <v>790</v>
       </c>
@@ -5436,7 +10700,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B83">
         <v>800</v>
       </c>
@@ -5444,7 +10708,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B84">
         <v>810</v>
       </c>
@@ -5452,7 +10716,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B85">
         <v>820</v>
       </c>
@@ -5460,7 +10724,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B86">
         <v>830</v>
       </c>
@@ -5468,7 +10732,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B87">
         <v>840</v>
       </c>
@@ -5476,7 +10740,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B88">
         <v>850</v>
       </c>
@@ -5484,7 +10748,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B89">
         <v>860</v>
       </c>
@@ -5492,7 +10756,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B90">
         <v>870</v>
       </c>
@@ -5500,7 +10764,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B91">
         <v>880</v>
       </c>
@@ -5508,7 +10772,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B92">
         <v>890</v>
       </c>
@@ -5516,7 +10780,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B93">
         <v>900</v>
       </c>
@@ -5524,7 +10788,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B94">
         <v>910</v>
       </c>
@@ -5532,7 +10796,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B95">
         <v>920</v>
       </c>
@@ -5540,7 +10804,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B96">
         <v>930</v>
       </c>
@@ -5548,7 +10812,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B97">
         <v>940</v>
       </c>
@@ -5556,7 +10820,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B98">
         <v>950</v>
       </c>
@@ -5564,7 +10828,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B99">
         <v>960</v>
       </c>
@@ -5572,7 +10836,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B100">
         <v>970</v>
       </c>
@@ -5580,7 +10844,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B101">
         <v>980</v>
       </c>
@@ -5588,7 +10852,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B102">
         <v>990</v>
       </c>
@@ -5596,7 +10860,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B103">
         <v>1000</v>
       </c>
@@ -5604,7 +10868,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B104">
         <v>1010</v>
       </c>
@@ -5612,7 +10876,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B105">
         <v>1020</v>
       </c>
@@ -5620,7 +10884,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B106">
         <v>1030</v>
       </c>
@@ -5628,7 +10892,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B107">
         <v>1040</v>
       </c>
@@ -5636,7 +10900,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B108">
         <v>1050</v>
       </c>
@@ -5644,7 +10908,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B109">
         <v>1060</v>
       </c>
@@ -5652,7 +10916,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B110">
         <v>1070</v>
       </c>
@@ -5660,7 +10924,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B111">
         <v>1080</v>
       </c>
@@ -5668,7 +10932,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B112">
         <v>1090</v>
       </c>
@@ -5676,12 +10940,37 @@
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B113">
         <v>1100</v>
       </c>
       <c r="C113">
         <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C114">
+        <f>STDEV(C3:C113)</f>
+        <v>9.2867504889350112</v>
+      </c>
+      <c r="D114">
+        <f>AVERAGE(C3:C113)</f>
+        <v>139.21621621621622</v>
+      </c>
+      <c r="E114">
+        <f>150-D114</f>
+        <v>10.783783783783775</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C115" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
